--- a/sysid_summer2017/trialdata/Raw_Data/trial_summary.xlsx
+++ b/sysid_summer2017/trialdata/Raw_Data/trial_summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanvaskov/Google Drive/SysId_Summer_2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanvaskov/Documents/MATLAB/Rover_Data/sysid_summer2017/trialdata/Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="128">
   <si>
     <t>Name</t>
   </si>
@@ -166,13 +166,259 @@
   </si>
   <si>
     <t>driving around manual control, figure 8s</t>
+  </si>
+  <si>
+    <t>circles1_5_31</t>
+  </si>
+  <si>
+    <t>circles2_5_31</t>
+  </si>
+  <si>
+    <t>circles3_5_31</t>
+  </si>
+  <si>
+    <t>circles4_5_31</t>
+  </si>
+  <si>
+    <t>circles5_5_31</t>
+  </si>
+  <si>
+    <t>circles6_5_31</t>
+  </si>
+  <si>
+    <t>circles7_5_31</t>
+  </si>
+  <si>
+    <t>circles8_5_31</t>
+  </si>
+  <si>
+    <t>circles9_5_31</t>
+  </si>
+  <si>
+    <t>circles10_5_31</t>
+  </si>
+  <si>
+    <t>circles11_5_31</t>
+  </si>
+  <si>
+    <t>circles13_5_31</t>
+  </si>
+  <si>
+    <t>circles14_5_31</t>
+  </si>
+  <si>
+    <t>circles15_5_31</t>
+  </si>
+  <si>
+    <t>circles16_5_31</t>
+  </si>
+  <si>
+    <t>circles17_5_31</t>
+  </si>
+  <si>
+    <t>circles18_5_31</t>
+  </si>
+  <si>
+    <t>circles19_5_31</t>
+  </si>
+  <si>
+    <t>circles20 _5_31</t>
+  </si>
+  <si>
+    <t>circles21_5_31</t>
+  </si>
+  <si>
+    <t>circles22_5_31</t>
+  </si>
+  <si>
+    <t>circles23_5_31</t>
+  </si>
+  <si>
+    <t>circles24_5_31</t>
+  </si>
+  <si>
+    <t>circles25_5_31</t>
+  </si>
+  <si>
+    <t>±300</t>
+  </si>
+  <si>
+    <t>roughly ~9 seconds per steering direction</t>
+  </si>
+  <si>
+    <t>During the circle trials it became apparent that the car slows down as the battery decreases in voltage. It would do 2 rotations in each direction. I had to increase the time per direction by ~0.05 seconds each trial to get it to do the same motion. The battery voltage started at ~8.2 and from trials 1-15 (I think) it dropped to ~7.5 volts. I put a fresh battery on for the remaining trials</t>
+  </si>
+  <si>
+    <t>1580±15</t>
+  </si>
+  <si>
+    <t>no mocap data</t>
+  </si>
+  <si>
+    <t>Folder: Data_Misc_tests</t>
+  </si>
+  <si>
+    <t>Processed data: may25_tests.mat</t>
+  </si>
+  <si>
+    <t>Folder:Data_Circular_Motion_5_31</t>
+  </si>
+  <si>
+    <t>Folder: Data_Straight_Motion_5_31</t>
+  </si>
+  <si>
+    <t>Processed data: processed_straight_5_31.mat</t>
+  </si>
+  <si>
+    <t>Processed data: processed_circles_5_31.mat</t>
+  </si>
+  <si>
+    <t>roughly ~9 seconds per steering direction. Spike in processed data</t>
+  </si>
+  <si>
+    <t>roughly ~9 seconds per steering direction, well executed. Funky right encoder data at end</t>
+  </si>
+  <si>
+    <t>roughly ~9 seconds per steering direction. Error processing data</t>
+  </si>
+  <si>
+    <t>Folder: Channel_Input_ID</t>
+  </si>
+  <si>
+    <t>straight1_5_30</t>
+  </si>
+  <si>
+    <t>straight2_5_31</t>
+  </si>
+  <si>
+    <t>straight3_5_31</t>
+  </si>
+  <si>
+    <t>straight4_5_31</t>
+  </si>
+  <si>
+    <t>straight5_5_31</t>
+  </si>
+  <si>
+    <t>straight6_5_31</t>
+  </si>
+  <si>
+    <t>straight7_5_31</t>
+  </si>
+  <si>
+    <t>straight8_5_31</t>
+  </si>
+  <si>
+    <t>straight9_5_31</t>
+  </si>
+  <si>
+    <t>straight10_5_31</t>
+  </si>
+  <si>
+    <t>straight11_5_31</t>
+  </si>
+  <si>
+    <t>straight12_5_31</t>
+  </si>
+  <si>
+    <t>straight13_5_31</t>
+  </si>
+  <si>
+    <t>straight14_5_31</t>
+  </si>
+  <si>
+    <t>straight15_5_31</t>
+  </si>
+  <si>
+    <t>straight16_5_31</t>
+  </si>
+  <si>
+    <t>throttle1_6_1</t>
+  </si>
+  <si>
+    <t>throttle2_6_1</t>
+  </si>
+  <si>
+    <t>throttle3_6_1</t>
+  </si>
+  <si>
+    <t>throttle4_6_1</t>
+  </si>
+  <si>
+    <t>throttle5_6_1</t>
+  </si>
+  <si>
+    <t>throttle6_6_1</t>
+  </si>
+  <si>
+    <t>throttle7_6_1</t>
+  </si>
+  <si>
+    <t>throttle9_6_1</t>
+  </si>
+  <si>
+    <t>throttle10_6_1</t>
+  </si>
+  <si>
+    <t>throttle11_6_1</t>
+  </si>
+  <si>
+    <t>throttle12_6_1</t>
+  </si>
+  <si>
+    <t>throttle13_6_1</t>
+  </si>
+  <si>
+    <t>throttle14_6_1</t>
+  </si>
+  <si>
+    <t>throttle15_6_1</t>
+  </si>
+  <si>
+    <t>throttle16_6_1</t>
+  </si>
+  <si>
+    <t>throttle17_6_1</t>
+  </si>
+  <si>
+    <t>throttle18_6_1</t>
+  </si>
+  <si>
+    <t>throttle19_6_1</t>
+  </si>
+  <si>
+    <t>throttle20_6_1</t>
+  </si>
+  <si>
+    <t>throttle21_6_1</t>
+  </si>
+  <si>
+    <t>throttle22_6_1</t>
+  </si>
+  <si>
+    <t>throttle23_6_1</t>
+  </si>
+  <si>
+    <t>throttle24_6_1</t>
+  </si>
+  <si>
+    <t>throttle25_6_1</t>
+  </si>
+  <si>
+    <t>throttle26_6_1</t>
+  </si>
+  <si>
+    <t>startng voltage 7.9</t>
+  </si>
+  <si>
+    <t>ending voltage 7.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +449,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,25 +475,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,21 +829,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K13"/>
+  <dimension ref="A2:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="7" width="13.5" customWidth="1"/>
     <col min="9" max="10" width="23.1640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -927,7 +1202,2255 @@
         <v>45</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>1625</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1580</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17">
+        <v>60</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>1625</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1580</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <v>60</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>1625</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1580</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19">
+        <v>60</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>1625</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1580</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20">
+        <v>60</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>1625</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1580</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21">
+        <v>60</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>1625</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1580</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22">
+        <v>60</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>1625</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1580</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <v>60</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>1625</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1580</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24">
+        <v>60</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>1625</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1580</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25">
+        <v>60</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>1625</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1580</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26">
+        <v>60</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <v>1625</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1580</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>18</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27">
+        <v>60</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>1625</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1580</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28">
+        <v>60</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>1625</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1580</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>18</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29">
+        <v>60</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>1625</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1580</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30">
+        <v>60</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>1625</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1580</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31">
+        <v>60</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>1625</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1580</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>18</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32">
+        <v>60</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>1625</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1580</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33">
+        <v>60</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34">
+        <v>1625</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1580</v>
+      </c>
+      <c r="F34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>18</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34">
+        <v>60</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>1625</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1580</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35">
+        <v>60</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>1625</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1580</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>18</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36">
+        <v>60</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37">
+        <v>1625</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1580</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>18</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37">
+        <v>60</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38">
+        <v>1625</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1580</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>18</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38">
+        <v>60</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>1625</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1580</v>
+      </c>
+      <c r="F39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>18</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39">
+        <v>60</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40">
+        <v>1625</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1580</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>18</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40">
+        <v>60</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I41" s="2"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44">
+        <v>1625</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45">
+        <v>1625</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46">
+        <v>1625</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47">
+        <v>1625</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48">
+        <v>1625</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49">
+        <v>1625</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50">
+        <v>1625</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>7</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51">
+        <v>1625</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52">
+        <v>1625</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>7</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53">
+        <v>1625</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54">
+        <v>1625</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55">
+        <v>1625</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56">
+        <v>1625</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>7</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57">
+        <v>1625</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58">
+        <v>1625</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>1625</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62">
+        <v>1650</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1580</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62">
+        <v>60</v>
+      </c>
+      <c r="K62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63">
+        <v>1650</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1600</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64">
+        <v>1650</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1590</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65">
+        <v>1650</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1590</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66">
+        <v>1650</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1590</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67">
+        <v>1640</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1590</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68">
+        <v>1640</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1590</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69">
+        <v>1630</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1590</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70">
+        <v>1630</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1590</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71">
+        <v>1630</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1590</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72">
+        <v>1620</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1590</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73">
+        <v>1620</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1590</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74">
+        <v>1620</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1590</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75">
+        <v>1610</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1590</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76">
+        <v>1610</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1590</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J76">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77">
+        <v>1610</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1590</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J77">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78">
+        <v>1600</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1590</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79">
+        <v>1600</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1590</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J79">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80">
+        <v>1600</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1590</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81">
+        <v>1590</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1590</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82">
+        <v>1590</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1590</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83">
+        <v>1590</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1590</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J83">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84">
+        <v>1600</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1590</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J84">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85">
+        <v>1600</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1590</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J85">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86">
+        <v>1600</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1590</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J86">
+        <v>60</v>
+      </c>
+      <c r="K86" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L17:L40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
